--- a/Engineering/2018-2019/Project Safety/Costs.xlsx
+++ b/Engineering/2018-2019/Project Safety/Costs.xlsx
@@ -178,13 +178,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +472,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +507,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>4000</v>
       </c>
       <c r="C3">
